--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_022.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_022.xlsx
@@ -31,304 +31,316 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295003AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Manual and automatic bus transfer</t>
-  </si>
-  <si>
-    <t>(700000AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Frequency changes</t>
-  </si>
-  <si>
-    <t>(295005AA2.04) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295018AK2.02) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Plant operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(600000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire detectors/heat detectors </t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor pressure response</t>
-  </si>
-  <si>
-    <t>(295016AA2.05) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295026EK2.12) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool makeup</t>
-  </si>
-  <si>
-    <t>(295031EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell venting</t>
-  </si>
-  <si>
-    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295003AK2.01) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Station batteries</t>
+  </si>
+  <si>
+    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295038EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Meteorological instrumentation</t>
+  </si>
+  <si>
+    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
+  </si>
+  <si>
+    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295025EK2.13) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295005AA1.02) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(295037EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Alternate control rod insertion methods</t>
+  </si>
+  <si>
+    <t>(295030EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Heat capacity</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AK2.04) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation system</t>
+  </si>
+  <si>
+    <t>(600000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit of long-term-breathing air system for control room</t>
+  </si>
+  <si>
+    <t>(295024EA1.21) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Recirculation system (LPCI loop select logic)</t>
+  </si>
+  <si>
+    <t>(295023AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Ventilation isolation</t>
+  </si>
+  <si>
+    <t>(295001AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Natural circulation</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EK2.09) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
+  </si>
+  <si>
+    <t>(295022AA1.01) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295012AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.5 / 45.6) Venting</t>
+  </si>
+  <si>
+    <t>(295029EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Containment integrity</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295017AK2.02) Knowledge of the relationship between the (APE 17) ABNORMAL OFFSITE RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Radwaste system</t>
+  </si>
+  <si>
+    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) LPRM, APRM, or OPRM channel bypass status </t>
+  </si>
+  <si>
+    <t>(217000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Turbine operation</t>
+  </si>
+  <si>
+    <t>(264000K4.07) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Local operation and control</t>
+  </si>
+  <si>
+    <t>(215004K3.04) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power indication</t>
+  </si>
+  <si>
+    <t>(300000A3.03) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Compressor automatic starts/trips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(209001A4.02) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valves </t>
+  </si>
+  <si>
+    <t>(209002K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Keep fill system</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215003K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(212000K2.03) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS alternate power supplies</t>
+  </si>
+  <si>
+    <t>(205000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low shutdown cooling suction pressure</t>
+  </si>
+  <si>
+    <t>(262001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Load currents</t>
+  </si>
+  <si>
+    <t>(259002K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Turbine speed control mechanisms: TDRFP</t>
+  </si>
+  <si>
+    <t>(261000K4.08) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Fire suppression</t>
+  </si>
+  <si>
+    <t>(218000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(223002A3.04) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) Verification of relay operation</t>
+  </si>
+  <si>
+    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
+  </si>
+  <si>
+    <t>(510000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Intake/traveling screen high differential pressure/ differential level</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (291006K1.04) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Effects of heat exchanger flow rates that are too high or too low and methods of proper flow adjustment</t>
+  </si>
+  <si>
+    <t>(262002K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
+  </si>
+  <si>
+    <t>(239002A2.05) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor pressure</t>
+  </si>
+  <si>
+    <t>(215005A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) RPS status</t>
+  </si>
+  <si>
+    <t>(217000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(264000K4.09) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Standby readiness</t>
+  </si>
+  <si>
+    <t>(215004K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
+  </si>
+  <si>
+    <t>(233000K2.01) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP Knowledge of electrical power supplies to the following: (CFR: 41.7) Fuel pool cooling pumps</t>
+  </si>
+  <si>
+    <t>(219000A2.12) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve logic failure</t>
+  </si>
+  <si>
+    <t>(268000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.5 / 45.5) Offsite release (liquid/gaseous release)</t>
+  </si>
+  <si>
+    <t>(241000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.5 / 45.3) Valve position control</t>
+  </si>
+  <si>
+    <t>(201001K4.13) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Motor cooling</t>
+  </si>
+  <si>
+    <t>(201003K3.01) Knowledge of the effect that a loss or malfunction of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM will have on the following systems or system parameters: (CFR: 41.1-2 / 41.7 / 41.10 / 45.1-6 / 4) Reactor power</t>
+  </si>
+  <si>
+    <t>(290003A3.02) Ability to monitor automatic operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.7 / 45.7) Initiation/failure of fire protection system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(239001A4.02) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Main steam line drain valves </t>
+  </si>
+  <si>
+    <t>(216000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(290002K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor feedwater system</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(292006K1.11) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Power changes from steady-state power to another</t>
+  </si>
+  <si>
+    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
+  </si>
+  <si>
+    <t>(293003K1.07) STEAM (CFR: 41.14) Define the following term: Saturated liquid</t>
+  </si>
+  <si>
+    <t>(293007K1.11) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Explain methods of calculating core thermal power</t>
+  </si>
+  <si>
+    <t>(293009K1.03) CORE THERMAL LIMITS (CFR: 41.14) Explain local peaking factor</t>
+  </si>
+  <si>
+    <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.07) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor recirculation flow</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.01) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operating point on the generator capability curve</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
   </si>
   <si>
-    <t>(295021AK2.04) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(295004AA1.04) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295037EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Alternate control rod insertion methods</t>
-  </si>
-  <si>
-    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
-  </si>
-  <si>
-    <t>(295034EK2.03) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295013AA1.03) Ability to operate and/or monitor the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.7 / 45.6) Suppression pool temperature monitoring system</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295009AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295022AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.8 to 41.10) Reactor pressure vs. rod insertion capability</t>
-  </si>
-  <si>
-    <t>(295011AA2.04) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) System/component operating limitations</t>
-  </si>
-  <si>
-    <t>(211000K4.11) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic system initiation</t>
-  </si>
-  <si>
-    <t>(217000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(263000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239002A3.02) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation on high reactor pressure </t>
-  </si>
-  <si>
-    <t>(209002A2.14) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(215003K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Downscale</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(300000K3.26) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Service water system</t>
-  </si>
-  <si>
-    <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
-  </si>
-  <si>
-    <t>(259002K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) High drywell pressure</t>
-  </si>
-  <si>
-    <t>(264000K2.04) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Ignition system (jet engine)</t>
-  </si>
-  <si>
-    <t>(205000K4.01) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) High temperature isolation /protection</t>
-  </si>
-  <si>
-    <t>(218000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(261000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Fire protection system</t>
-  </si>
-  <si>
-    <t>(209001A3.01) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(510000A2.01) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/motor failure</t>
-  </si>
-  <si>
-    <t>(223002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291008K1.03) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Meaning and/or the loss of power supply circuit breaker indicator lights and capability to remotely open and close</t>
-  </si>
-  <si>
-    <t>(262002K3.15) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main turbine generator and auxiliary systems</t>
-  </si>
-  <si>
-    <t>(262001A4.04) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Synchronizing of AC sources</t>
-  </si>
-  <si>
-    <t>(215005K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) Uninterruptable power supply (AC/DC)</t>
-  </si>
-  <si>
-    <t>(212000K2.03) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS alternate power supplies</t>
-  </si>
-  <si>
-    <t>(211000K4.05) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dispersal of boron upon injection into the vessel</t>
-  </si>
-  <si>
-    <t>(217000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) RCIC pressure</t>
-  </si>
-  <si>
-    <t>(263000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(239002A3.01) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation after ADS actuation</t>
-  </si>
-  <si>
-    <t>(223001K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.7 / 45.7) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(272000K2.04) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(290003K4.03) Knowledge of (SF9 CRV) CONTROL ROOM VENTILATION design features and/or interlocks that provide for the following: (CFR: 41.7) Differential pressure control</t>
-  </si>
-  <si>
-    <t>(233000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.5 / 45.5) Fuel pool clarity</t>
-  </si>
-  <si>
-    <t>(256000K1.18) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 CDS) CONDENSATE SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Circulating water system</t>
-  </si>
-  <si>
-    <t>(239001A3.02) Ability to monitor automatic operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.7 / 45.7) Opening and closing of drain valves as turbine load changes</t>
-  </si>
-  <si>
-    <t>(245000A2.09) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine vibration</t>
-  </si>
-  <si>
-    <t>(290002K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.5 / 45.3) Offsite radiation levels</t>
-  </si>
-  <si>
-    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(286000K3.02) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Personnel protection</t>
-  </si>
-  <si>
-    <t>(271000A4.03) Ability to manually operate and/or monitor the (SF9 OG) OFFGAS SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System temperatures</t>
-  </si>
-  <si>
-    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292006K1.08) FISSION PRODUCT POISONS (CFR: 41.1) Describe the effects that xenon concentration has on flux shape and control rod patterns</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t>(292005K1.10) CONTROL RODS (CFR: 41.1) State the purpose of flux shaping</t>
-  </si>
-  <si>
-    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
-  </si>
-  <si>
-    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AA2.05) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(600000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Ventilation alignment necessary to secure affected area</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AA2.01) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295017AA2.02) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
-  </si>
-  <si>
-    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+    <t>(295008AA2.04) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Heatup rate</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295020AA2.09) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Area/delta temperatures</t>
+  </si>
+  <si>
+    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(209002A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of AC electrical distribution</t>
   </si>
   <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(215004A2.03) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(400000A2.01) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of CCW pump</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(201001A2.06) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Suction strainer(s) becoming plugged</t>
-  </si>
-  <si>
-    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003A2.04) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale or downscale trips</t>
+  </si>
+  <si>
+    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(259001A2.11) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Component cooling water malfunctions</t>
+  </si>
+  <si>
+    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
     <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>K3</t>
@@ -337,16 +349,7 @@
     <t>K1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>K5</t>
   </si>
   <si>
     <t>K4</t>
@@ -355,9 +358,6 @@
     <t>A3</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295003</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>700000</t>
   </si>
   <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
     <t>295018</t>
   </si>
   <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295016</t>
+    <t>295024</t>
   </si>
   <si>
     <t>295023</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295013</t>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295029</t>
   </si>
   <si>
     <t>295010</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295011</t>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>262002</t>
   </si>
   <si>
     <t>211000</t>
   </si>
   <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
     <t>239002</t>
   </si>
   <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>272000</t>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>201003</t>
   </si>
   <si>
     <t>290003</t>
   </si>
   <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
     <t>239001</t>
   </si>
   <si>
+    <t>216000</t>
+  </si>
+  <si>
     <t>245000</t>
   </si>
   <si>
     <t>290002</t>
   </si>
   <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
     <t>259001</t>
   </si>
   <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>201005</t>
+    <t>226001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D35" t="s">
         <v>105</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1650,7 +1650,7 @@
         <v>2.7</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1769,7 +1769,7 @@
         <v>3.5</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1786,7 +1786,7 @@
         <v>3.9</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D63" t="s">
         <v>105</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D77" t="s">
         <v>107</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D79" t="s">
         <v>107</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D83" t="s">
         <v>107</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D86" t="s">
         <v>107</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D87" t="s">
         <v>107</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
         <v>107</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D91" t="s">
         <v>107</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D93" t="s">
         <v>107</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
